--- a/EXCEL SHEET TESTCSES.xlsx
+++ b/EXCEL SHEET TESTCSES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>USERNAME</t>
   </si>
@@ -45,23 +45,80 @@
     <t>administrator</t>
   </si>
   <si>
-    <t>Survey</t>
-  </si>
-  <si>
-    <t>charts</t>
-  </si>
-  <si>
-    <t>All validation on input elements</t>
-  </si>
-  <si>
-    <t>Datbase based</t>
+    <t>sanapakshay@gmail.com</t>
+  </si>
+  <si>
+    <t>12536abc</t>
+  </si>
+  <si>
+    <t>xyz@yahoo.in</t>
+  </si>
+  <si>
+    <t>Ashhbuil</t>
+  </si>
+  <si>
+    <t>Successful</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Selected User</t>
+  </si>
+  <si>
+    <t>abc@we.ug</t>
+  </si>
+  <si>
+    <t>dlfksdnf</t>
+  </si>
+  <si>
+    <t>Contact and Data</t>
+  </si>
+  <si>
+    <t>School name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Year of rebuilt </t>
+  </si>
+  <si>
+    <t>Type of disaster</t>
+  </si>
+  <si>
+    <t>Disaster year</t>
+  </si>
+  <si>
+    <t>MGV</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Earthquake</t>
+  </si>
+  <si>
+    <t>Staneo</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>thapi123</t>
+  </si>
+  <si>
+    <t>dan123</t>
+  </si>
+  <si>
+    <t>happyhearts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +130,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -114,10 +178,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -420,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,80 +497,213 @@
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="3">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="D7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
         <v>2</v>
       </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2008</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2007</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2002</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2001</v>
+      </c>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2"/>
-    <hyperlink ref="B5" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C7" r:id="rId3"/>
+    <hyperlink ref="C8" r:id="rId4"/>
+    <hyperlink ref="C9" r:id="rId5"/>
+    <hyperlink ref="C10" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
